--- a/src/frontend/components/sheets/Template.xlsx
+++ b/src/frontend/components/sheets/Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AndreyOliveira0\LeitorArquivos-Vue\src\frontend\components\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Disciplinas" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +132,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,16 +177,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,17 +478,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
@@ -513,7 +533,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -537,6 +557,37 @@
       <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -547,10 +598,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +621,7 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -594,6 +645,54 @@
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -603,19 +702,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A22" sqref="A2:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
@@ -626,7 +725,7 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -644,12 +743,42 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -659,10 +788,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +799,7 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
@@ -682,7 +811,7 @@
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -700,12 +829,24 @@
       <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
